--- a/data/saida/nao_respondidos_para_ligar.xlsx
+++ b/data/saida/nao_respondidos_para_ligar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TELEFONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>gustavo Barbosa pinto de souza</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+5561994121708</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>marcio barbosa de souza</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+5561999890828</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>antonio ferreira pinto</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+5561992082012</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Keyla barbosa Pinto</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+5561995979443</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Murillo araujo jesus</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+5561996544168</t>
+          <t>NUMERO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>vencimento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
         </is>
       </c>
     </row>
